--- a/assets/template/jadwal_kuliah_template.xlsx
+++ b/assets/template/jadwal_kuliah_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A393CC7-B274-4BBF-B29A-0086308525A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A77C7C-D8E6-4584-BA2C-FBA06469B495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EA80664-2412-4964-A436-1589CE40B3C5}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Jam</t>
   </si>
   <si>
-    <t>Durasi</t>
-  </si>
-  <si>
     <t>NIP1</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Untuk semester - </t>
+  </si>
+  <si>
+    <t>Sampai</t>
   </si>
 </sst>
 </file>
@@ -425,42 +425,47 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/template/jadwal_kuliah_template.xlsx
+++ b/assets/template/jadwal_kuliah_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\praktikum_ukp\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A77C7C-D8E6-4584-BA2C-FBA06469B495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF0977E-75FC-4F94-B08A-2D225AA83FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6EA80664-2412-4964-A436-1589CE40B3C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kode MK</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>Sampai</t>
+  </si>
+  <si>
+    <t>Senin</t>
+  </si>
+  <si>
+    <t>7:30</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>TF4XXX</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>10XX</t>
+  </si>
+  <si>
+    <t>Lab SI</t>
   </si>
 </sst>
 </file>
@@ -105,9 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51767AA4-D49A-41D1-B861-2BE99A87DE55}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,6 +491,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
